--- a/src/test/resources/TestBrokerTestData/testbroker.xlsx
+++ b/src/test/resources/TestBrokerTestData/testbroker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14040" windowHeight="6015" tabRatio="933"/>
+    <workbookView windowWidth="11085" windowHeight="6015" tabRatio="933"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials_Sheet" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>Valid-address</t>
   </si>
   <si>
-    <t>Canada Way, Burnaby, BC, Canada</t>
+    <t>Canada Way</t>
   </si>
   <si>
     <t>StreetName</t>
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -162,11 +162,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,26 +191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,74 +216,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,30 +498,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,6 +512,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,13 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +581,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -601,7 +601,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,138 +616,135 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,7 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1082,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1157,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1219,7 +1218,7 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/TestBrokerTestData/testbroker.xlsx
+++ b/src/test/resources/TestBrokerTestData/testbroker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16035" windowHeight="5370" tabRatio="933"/>
+    <workbookView windowWidth="13320" windowHeight="6015" tabRatio="933"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials_Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A4:F17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Method Name</t>
   </si>
@@ -112,13 +112,28 @@
   </si>
   <si>
     <t>TargetFieldValue</t>
+  </si>
+  <si>
+    <t>GrossValue</t>
+  </si>
+  <si>
+    <t>Valid-GrossValue</t>
+  </si>
+  <si>
+    <t>CA$12,500.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +176,344 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,12 +521,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -191,20 +773,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,29 +1095,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.4285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="45" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="2" s="2" customFormat="1" ht="45" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -516,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="3" s="2" customFormat="1" ht="30" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -527,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -538,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -549,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -560,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -571,7 +1200,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -582,7 +1211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -593,7 +1222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -604,7 +1233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -615,7 +1244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -624,25 +1253,41 @@
       </c>
       <c r="C12" s="2">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2" tooltip="mailto:testuser2@aegislondon.co.uk"/>
+    <hyperlink ref="C2" r:id="rId1" display="kalpana.kaushik@impactqa.com"/>
+    <hyperlink ref="C10" r:id="rId2" display="testuser2@aegislondon.co.uk" tooltip="mailto:testuser2@aegislondon.co.uk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestBrokerTestData/testbroker.xlsx
+++ b/src/test/resources/TestBrokerTestData/testbroker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="6015" tabRatio="933"/>
+    <workbookView windowWidth="12780" windowHeight="6015" tabRatio="933"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials_Sheet" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Method Name</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>CA$12,500.00</t>
+  </si>
+  <si>
+    <t>TestBroker</t>
+  </si>
+  <si>
+    <t>Valid-URL</t>
+  </si>
+  <si>
+    <t>https://testbroker-v2.opaluw.com/</t>
+  </si>
+  <si>
+    <t>Dofe</t>
+  </si>
+  <si>
+    <t>https://www.dofe.org/</t>
   </si>
 </sst>
 </file>
@@ -128,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -184,14 +199,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,107 +297,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +546,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +591,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,45 +634,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +652,131 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,17 +1116,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="35.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.1428571428571" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.4285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="45" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.14285714285714" style="2"/>
@@ -1134,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="45" spans="1:3">
+    <row r="2" s="2" customFormat="1" ht="30" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="30" spans="1:3">
+    <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1264,12 +1279,35 @@
       </c>
       <c r="C13" s="7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="kalpana.kaushik@impactqa.com"/>
     <hyperlink ref="C10" r:id="rId2" display="testuser2@aegislondon.co.uk" tooltip="mailto:testuser2@aegislondon.co.uk"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://testbroker-v2.opaluw.com/" tooltip="https://testbroker-v2.opaluw.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/resources/TestBrokerTestData/testbroker.xlsx
+++ b/src/test/resources/TestBrokerTestData/testbroker.xlsx
@@ -132,10 +132,10 @@
     <t>https://testbroker-v2.opaluw.com/</t>
   </si>
   <si>
-    <t>Dofe</t>
-  </si>
-  <si>
-    <t>https://www.dofe.org/</t>
+    <t>AegisLodon</t>
+  </si>
+  <si>
+    <t>https://aegislondon.co.uk/</t>
   </si>
 </sst>
 </file>
@@ -145,8 +145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -199,14 +199,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +236,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -235,16 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +289,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,68 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,49 +343,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,43 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,43 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,38 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,29 +563,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,18 +599,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,128 +655,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" spans="1:3">
+    <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
